--- a/webscraping_limpo.xlsx
+++ b/webscraping_limpo.xlsx
@@ -1470,7 +1470,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Desconhecida</t>
+          <t>Hwj</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2340,7 +2340,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Desconhecida</t>
+          <t>PCI</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2601,7 +2601,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Desconhecida</t>
+          <t>Revenger</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2978,7 +2978,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Desconhecida</t>
+          <t>Colorful</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -3790,7 +3790,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Desconhecida</t>
+          <t>Colorful</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -4080,7 +4080,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Desconhecida</t>
+          <t>PCI</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -4114,7 +4114,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>NVIDIA</t>
         </is>
       </c>
       <c r="F127" t="n">
@@ -4143,7 +4143,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>NVIDIA</t>
         </is>
       </c>
       <c r="F128" t="n">
@@ -4196,7 +4196,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Desconhecida</t>
+          <t>Bluecase</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -4259,7 +4259,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>NVIDIA</t>
         </is>
       </c>
       <c r="F132" t="n">
@@ -4283,7 +4283,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Desconhecida</t>
+          <t>PCI</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -4631,7 +4631,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Desconhecida</t>
+          <t>Colorful</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -4863,7 +4863,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Desconhecida</t>
+          <t>Bluecase</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Desconhecida</t>
+          <t>BRX</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -5042,7 +5042,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>NVIDIA</t>
         </is>
       </c>
       <c r="F159" t="n">
@@ -5216,7 +5216,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>NVIDIA</t>
         </is>
       </c>
       <c r="F165" t="n">
@@ -5414,12 +5414,12 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Desconhecida</t>
+          <t>Gainward</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>NVIDIA</t>
         </is>
       </c>
       <c r="F172" t="n">
@@ -5762,7 +5762,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Desconhecida</t>
+          <t>Gainward</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -6023,7 +6023,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Desconhecida</t>
+          <t>PCI</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -6139,7 +6139,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Desconhecida</t>
+          <t>Revenger</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -6313,7 +6313,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Desconhecida</t>
+          <t>Knup</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -6342,7 +6342,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Desconhecida</t>
+          <t>Revenger</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -6405,7 +6405,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>NVIDIA</t>
         </is>
       </c>
       <c r="F206" t="n">
@@ -6463,7 +6463,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>NVIDIA</t>
         </is>
       </c>
       <c r="F208" t="n">
@@ -6777,7 +6777,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Desconhecida</t>
+          <t>BRX</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -6806,7 +6806,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Desconhecida</t>
+          <t>Gainward</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -6893,7 +6893,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Desconhecida</t>
+          <t>PCI</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -6951,12 +6951,12 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Desconhecida</t>
+          <t>KeepData</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>NVIDIA</t>
         </is>
       </c>
       <c r="F225" t="n">
@@ -6980,12 +6980,12 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Desconhecida</t>
+          <t>Revenger</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>NVIDIA</t>
         </is>
       </c>
       <c r="F226" t="n">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Desconhecida</t>
+          <t>PCI</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -7125,7 +7125,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Desconhecida</t>
+          <t>BRX</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -7420,7 +7420,7 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>NVIDIA</t>
         </is>
       </c>
       <c r="F241" t="n">
@@ -7449,7 +7449,7 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>NVIDIA</t>
         </is>
       </c>
       <c r="F242" t="n">
@@ -7705,7 +7705,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Desconhecida</t>
+          <t>Valianty</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>NVIDIA</t>
         </is>
       </c>
       <c r="F253" t="n">
@@ -7884,7 +7884,7 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>NVIDIA</t>
         </is>
       </c>
       <c r="F257" t="n">
@@ -7913,7 +7913,7 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>NVIDIA</t>
         </is>
       </c>
       <c r="F258" t="n">
@@ -7966,12 +7966,12 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>Desconhecida</t>
+          <t>PCI</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>NVIDIA</t>
         </is>
       </c>
       <c r="F260" t="n">
@@ -8111,7 +8111,7 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>Desconhecida</t>
+          <t>KeepData</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
@@ -8140,12 +8140,12 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>Desconhecida</t>
+          <t>Gainward</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>NVIDIA</t>
         </is>
       </c>
       <c r="F266" t="n">
@@ -8493,7 +8493,7 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>NVIDIA</t>
         </is>
       </c>
       <c r="F278" t="n">
@@ -8725,7 +8725,7 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>NVIDIA</t>
         </is>
       </c>
       <c r="F286" t="n">
@@ -8749,7 +8749,7 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>Desconhecida</t>
+          <t>PCI</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
@@ -8807,12 +8807,12 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Desconhecida</t>
+          <t>KeepData</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>NVIDIA</t>
         </is>
       </c>
       <c r="F289" t="n">
@@ -8841,7 +8841,7 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>NVIDIA</t>
         </is>
       </c>
       <c r="F290" t="n">
@@ -8865,7 +8865,7 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>Desconhecida</t>
+          <t>PCI</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
@@ -8952,12 +8952,12 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>Desconhecida</t>
+          <t>PCI</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>NVIDIA</t>
         </is>
       </c>
       <c r="F294" t="n">
@@ -9010,12 +9010,12 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>Desconhecida</t>
+          <t>Gainward</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>NVIDIA</t>
         </is>
       </c>
       <c r="F296" t="n">
@@ -9039,7 +9039,7 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Desconhecida</t>
+          <t>Gainward</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
@@ -9184,7 +9184,7 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Desconhecida</t>
+          <t>Knup</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
@@ -9334,7 +9334,7 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>NVIDIA</t>
         </is>
       </c>
       <c r="F307" t="n">
@@ -9358,12 +9358,12 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>Desconhecida</t>
+          <t>Gainward</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>NVIDIA</t>
         </is>
       </c>
       <c r="F308" t="n">
@@ -9532,7 +9532,7 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Desconhecida</t>
+          <t>BRX</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
@@ -9619,12 +9619,12 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>Desconhecida</t>
+          <t>Evolut</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>NVIDIA</t>
         </is>
       </c>
       <c r="F317" t="n">
@@ -9735,7 +9735,7 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Desconhecida</t>
+          <t>PCI</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
@@ -9851,7 +9851,7 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Desconhecida</t>
+          <t>Gainward</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Desconhecida</t>
+          <t>BRX</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
@@ -9943,7 +9943,7 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>NVIDIA</t>
         </is>
       </c>
       <c r="F328" t="n">
@@ -10083,7 +10083,7 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>Desconhecida</t>
+          <t>BRX</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
@@ -10141,7 +10141,7 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>Desconhecida</t>
+          <t>Valianty</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
@@ -10175,7 +10175,7 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>NVIDIA</t>
         </is>
       </c>
       <c r="F336" t="n">
@@ -10697,7 +10697,7 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>NVIDIA</t>
         </is>
       </c>
       <c r="F354" t="n">
@@ -10750,7 +10750,7 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>Desconhecida</t>
+          <t>MBA</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
@@ -10895,7 +10895,7 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>Desconhecida</t>
+          <t>Valianty</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
@@ -10929,7 +10929,7 @@
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>NVIDIA</t>
         </is>
       </c>
       <c r="F362" t="n">
@@ -10987,7 +10987,7 @@
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>NVIDIA</t>
         </is>
       </c>
       <c r="F364" t="n">
@@ -11011,12 +11011,12 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>Desconhecida</t>
+          <t>Gainward</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>NVIDIA</t>
         </is>
       </c>
       <c r="F365" t="n">
@@ -11156,12 +11156,12 @@
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>Desconhecida</t>
+          <t>PCI</t>
         </is>
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>NVIDIA</t>
         </is>
       </c>
       <c r="F370" t="n">
@@ -11185,7 +11185,7 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>Desconhecida</t>
+          <t>PCI</t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
@@ -11243,12 +11243,12 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>Desconhecida</t>
+          <t>Gainward</t>
         </is>
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>NVIDIA</t>
         </is>
       </c>
       <c r="F373" t="n">
@@ -11301,12 +11301,12 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>Desconhecida</t>
+          <t>PCI</t>
         </is>
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>NVIDIA</t>
         </is>
       </c>
       <c r="F375" t="n">
@@ -11330,12 +11330,12 @@
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>Desconhecida</t>
+          <t>PCI</t>
         </is>
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>NVIDIA</t>
         </is>
       </c>
       <c r="F376" t="n">
@@ -11446,12 +11446,12 @@
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>Desconhecida</t>
+          <t>KeepData</t>
         </is>
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>NVIDIA</t>
         </is>
       </c>
       <c r="F380" t="n">
@@ -11504,7 +11504,7 @@
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>Desconhecida</t>
+          <t>MBA</t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
@@ -11533,7 +11533,7 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>Desconhecida</t>
+          <t>MBA</t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
@@ -11567,7 +11567,7 @@
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>NVIDIA</t>
         </is>
       </c>
       <c r="F384" t="n">
@@ -11596,7 +11596,7 @@
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>NVIDIA</t>
         </is>
       </c>
       <c r="F385" t="n">
@@ -11625,7 +11625,7 @@
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>NVIDIA</t>
         </is>
       </c>
       <c r="F386" t="n">
@@ -11649,7 +11649,7 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>Desconhecida</t>
+          <t>Bluecase</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
@@ -11683,7 +11683,7 @@
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>NVIDIA</t>
         </is>
       </c>
       <c r="F388" t="n">
@@ -11741,7 +11741,7 @@
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>NVIDIA</t>
         </is>
       </c>
       <c r="F390" t="n">
@@ -11799,7 +11799,7 @@
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>NVIDIA</t>
         </is>
       </c>
       <c r="F392" t="n">
@@ -11881,7 +11881,7 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>Desconhecida</t>
+          <t>Revenger</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
@@ -11973,7 +11973,7 @@
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>NVIDIA</t>
         </is>
       </c>
       <c r="F398" t="n">
@@ -11997,12 +11997,12 @@
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>Desconhecida</t>
+          <t>PCI</t>
         </is>
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>NVIDIA</t>
         </is>
       </c>
       <c r="F399" t="n">
@@ -12055,7 +12055,7 @@
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>Desconhecida</t>
+          <t>Knup</t>
         </is>
       </c>
       <c r="E401" t="inlineStr">
@@ -12089,7 +12089,7 @@
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>NVIDIA</t>
         </is>
       </c>
       <c r="F402" t="n">
@@ -12147,7 +12147,7 @@
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>NVIDIA</t>
         </is>
       </c>
       <c r="F404" t="n">
@@ -12200,7 +12200,7 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>Desconhecida</t>
+          <t>BRX</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
@@ -12229,7 +12229,7 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>Desconhecida</t>
+          <t>BRX</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
@@ -12321,7 +12321,7 @@
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>NVIDIA</t>
         </is>
       </c>
       <c r="F410" t="n">
@@ -12403,12 +12403,12 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>Desconhecida</t>
+          <t>Evolut</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>NVIDIA</t>
         </is>
       </c>
       <c r="F413" t="n">
@@ -12437,7 +12437,7 @@
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>NVIDIA</t>
         </is>
       </c>
       <c r="F414" t="n">
@@ -12524,7 +12524,7 @@
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>NVIDIA</t>
         </is>
       </c>
       <c r="F417" t="n">
@@ -12548,12 +12548,12 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>Desconhecida</t>
+          <t>PCI</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>NVIDIA</t>
         </is>
       </c>
       <c r="F418" t="n">
@@ -12582,7 +12582,7 @@
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>NVIDIA</t>
         </is>
       </c>
       <c r="F419" t="n">
@@ -12611,7 +12611,7 @@
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>NVIDIA</t>
         </is>
       </c>
       <c r="F420" t="n">
@@ -12664,12 +12664,12 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Desconhecida</t>
+          <t>Gainward</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>NVIDIA</t>
         </is>
       </c>
       <c r="F422" t="n">
@@ -12727,7 +12727,7 @@
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>NVIDIA</t>
         </is>
       </c>
       <c r="F424" t="n">
@@ -12756,7 +12756,7 @@
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>NVIDIA</t>
         </is>
       </c>
       <c r="F425" t="n">
@@ -12843,7 +12843,7 @@
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>NVIDIA</t>
         </is>
       </c>
       <c r="F428" t="n">
@@ -12896,7 +12896,7 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>Desconhecida</t>
+          <t>Gainward</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
